--- a/data/summary_22070210.xlsx
+++ b/data/summary_22070210.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,1162 +406,1297 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>16.18925619834711</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>964.3049586776859</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.3902508196721312</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.4313639344262295</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.903662521189968</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.0002189618851585994</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>15.7</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6.291735537190083</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>16.0702479338843</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>964.398347107438</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.5490639344262295</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.6076803278688525</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4.067194965841344</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-2.705694556978901e-018</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>15.7</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>7.124793388429752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>16.17768595041322</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>964.601652892562</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.3961032786885246</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.4555573770491803</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.75943851819452</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6.979989668843634e-005</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>15.79256198347107</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5.919008264462811</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>16.21404958677686</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>964.7190082644628</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.3997147540983607</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4555770491803279</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.904660256221783</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.623149355075956e-017</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>15.8</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8.079338842975206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>16.53140495867769</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>964.8479338842975</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.2610983606557377</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2773229508196721</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.17639815986897</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-2.702645911691503e-018</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>16</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6.704132231404959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>16.57933884297521</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>964.8909090909091</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.345127868852459</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3760098360655738</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.466286134743789</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-2.7023190649761e-018</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>16.07272727272727</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8.641322314049587</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>17.24958677685951</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>964.9173553719008</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3595639344262295</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3898639344262295</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.750147620841311</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-2.156923990999068e-017</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>16.25950413223141</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9.230578512396695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>17.26776859504132</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>964.9</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.3386934426229508</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3563311475409836</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.605192952916002</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-2.156750141428846e-017</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>16.29173553719008</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8.356198347107437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>17.53471074380165</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>964.9991735537191</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.3776885245901639</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.4396573770491803</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.747681654575326</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.0001602527668854374</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>16.47190082644628</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>7.610743801652893</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>17.59586776859504</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>965.0413223140496</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2674754098360656</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2903180327868852</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.024269859664506</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-2.69328932000236e-018</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>16.5</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5.011570247933884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>17.66611570247934</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>965.1487603305785</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.2736393442622951</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2745065573770492</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.168577796407454</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.0001755921401451885</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>16.5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5.280991735537191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>18.03719008264463</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>965.2685950413223</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3771262295081967</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.409555737704918</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.74370355829041</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-2.151872057969599e-017</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>16.7</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5.798347107438016</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>18.08677685950413</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>965.3074380165289</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.3851409836065574</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.4297147540983606</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.887733217329005</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-2.151592195527912e-017</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>16.7</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>7.908264462809918</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>18.43801652892562</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>965.4652892561984</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.312972131147541</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.3402245901639344</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.452015893763072</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-2.149351454829125e-017</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>16.8</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>6.916528925619836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>18.46942148760331</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>965.506611570248</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.3242540983606557</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.3548737704918033</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.451856632369543</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3.492469394793275e-017</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>16.99338842975207</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>7.590909090909091</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>19.1801652892562</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>965.6198347107438</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.3273950819672131</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.3491967213114754</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.59007207909558</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.0001200206628978962</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>17.2</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>7.666115702479338</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>19.25123966942149</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>965.6528925619836</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.4106081967213115</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.4534655737704918</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>3.021119304783036</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.0002080853124299527</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>17.3</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>6.3900826446281</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>19.59752066115703</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>965.6884297520662</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.4514606557377049</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.4761016393442623</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3.448748507125672</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-2.67666483134522e-018</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>17.5</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>7.033884297520661</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>19.59090909090909</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>965.7148760330579</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.5730852459016393</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.651072131147541</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>4.311151108222798</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-2.676798597894444e-018</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>17.5297520661157</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5.138016528925619</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>20.02314049586777</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>965.793388429752</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.4657</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.5320704918032787</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>3.444113448984135</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.0001715611089316199</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>17.9</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>20.09256198347108</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>965.8595041322313</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.4724</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.5204327868852459</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>3.587013958717226</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1.603571321126209e-017</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>17.9</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>5.80495867768595</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>20.97851239669421</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>965.8438016528926</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.4907836065573771</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.5601426229508196</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>3.719191620193467</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>5.035514675202384e-005</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>18.18677685950413</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>7.820661157024794</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>21.47851239669422</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>965.8363636363636</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.4370491803278688</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.4795409836065574</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>3.570046297461261</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.0002016650825093624</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>18.28925619834711</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>9.132231404958677</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>21.83801652892562</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>965.8719008264462</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.3892196721311476</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.4330868852459017</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2.852659550675694</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.0001998570123905753</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>18.60330578512397</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>5.157851239669421</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>21.83333333333333</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>965.8066666666666</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4.239978987726477e-017</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>18.8</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>21.9</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>965.798347107438</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.4173459016393443</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.4549508196721311</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3.279619189281362</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.0001509900212912745</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>18.8</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>6.221487603305785</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>22.44462809917355</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>965.8008264462809</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.6292688524590164</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.804372131147541</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>4.554548705735139</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.0001915210142939534</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>19.1</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3.60495867768595</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>22.45371900826446</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>965.8033057851239</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.5605098360655738</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.6424737704918033</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>4.127443358045748</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.0001927305191729994</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>19.18264462809918</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>7.838842975206611</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>23.19669421487603</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>965.8834710743802</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.4999081967213115</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.5333377049180328</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>3.975451467308814</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.0001573345663055823</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>19.5</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>23.2900826446281</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>965.901652892562</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.4819032786885246</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.5032639344262295</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>3.690396584650029</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.0001091809386987298</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>19.5</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>5.606611570247933</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>23.83471074380165</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>965.9644628099173</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.4447459016393442</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.4816426229508197</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>3.258803683531104</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.0001863808415013719</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>19.9</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>5.994214876033058</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>23.78595041322314</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>965.9900826446281</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.3348655737704918</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.3616590163934426</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2.550854765237867</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.0001664947222145262</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>19.9</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>6.9900826446281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>24.2900826446281</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>966.0818181818182</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.4000245901639344</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.4229131147540984</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>3.112720065994871</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>8.935495401975583e-005</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>20.22231404958678</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>7.120661157024793</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>24.32396694214876</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>966.0471074380165</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.4344885245901639</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.4428409836065574</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>3.536651706605248</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-2.108086640441562e-017</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>20.3</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>6.299173553719008</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>24.46627906976744</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>965.9918604651163</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.4274961538461539</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.3948730769230769</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>10.42753480805464</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>7.51337533281935e-005</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>20.5</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>5.777906976744187</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>24.47190082644628</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>965.9809917355372</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.4512065573770492</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.477888524590164</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>3.534650990521905</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.0001637011657726379</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>20.61900826446281</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>4.390082644628099</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>24.56611570247934</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>965.9958677685951</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.5122622950819672</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.5519786885245902</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>3.957616624049745</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.0001356828103981933</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>20.83884297520661</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>4.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>24.94876033057851</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>966.0421487603306</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.4039606557377049</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.439044262295082</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>3.246879910330727</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.0001838693357034699</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>21.1</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>3.617355371900827</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>25.00165289256199</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>966.0545454545455</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.3815655737704918</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.4042918032786885</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>3.105199830133635</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.0001768130376867336</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>21.2702479338843</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>6.304132231404958</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>25.46363636363637</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>966.0842975206612</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.3839639344262295</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.4110475409836066</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>2.959557551037797</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.0001037815091276856</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>21.50826446280992</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>8.575206611570248</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>25.84545454545454</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>966.0123966942149</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.2509262295081967</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.1637786885245902</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2.251852423345203</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.0001592032447201882</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>21.79421487603306</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>2.855371900826446</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>26.27603305785124</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>966.0322314049587</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.3052</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.3135819672131148</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>2.389199950745187</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>9.378153928098847e-005</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>22.1</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>26.34876033057851</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>966.006611570248</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.3394213114754098</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.3728868852459016</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>2.669562747918491</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>2.355462879721996e-017</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>22.1</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>5.475206611570249</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>26.49834710743802</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>966.0148760330578</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.5077491803278689</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.5734098360655737</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>3.791726869534933</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>8.869020601499771e-005</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>22.16694214876033</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>6.93305785123967</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>26.3404958677686</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>966.0107438016529</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.5327409836065574</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.5856983606557377</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>4.215233481110433</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.0001808130043793057</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>22.1</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>6.008264462809917</v>
       </c>
     </row>
